--- a/data/trans_dic/P21D_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_2_R-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.03199637339548784</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.02670818875196708</v>
+        <v>0.02670818875196707</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.02919930614238417</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01715754141106295</v>
+        <v>0.01401086087964367</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01445501620120994</v>
+        <v>0.01445511878694161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01947275365957232</v>
+        <v>0.01857422712538031</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05976787438466943</v>
+        <v>0.05482820291164248</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04440217860898084</v>
+        <v>0.04519538213399126</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04360871551889227</v>
+        <v>0.04319842365994146</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002872690224016063</v>
+        <v>0.003741819656248607</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01157877549409178</v>
+        <v>0.01166215522518963</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.00930374731894924</v>
+        <v>0.009743450237694221</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02436751073534438</v>
+        <v>0.02609238595178271</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04011784837463022</v>
+        <v>0.03871144269037478</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02475931946581236</v>
+        <v>0.02718233346595684</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.02440051468692702</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.03294235555554888</v>
+        <v>0.03294235555554887</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02198196167023811</v>
+        <v>0.02394212497135611</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01331364411301717</v>
+        <v>0.01308947591732967</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02201800219137184</v>
+        <v>0.02189307517623916</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06769354614233478</v>
+        <v>0.06970454043870151</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0446607097231916</v>
+        <v>0.04542447939330325</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04974401285991198</v>
+        <v>0.04956556787383794</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002101947404080634</v>
+        <v>0.002162149193808453</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01474906533187615</v>
+        <v>0.01524069877396784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01083914004150429</v>
+        <v>0.01099803127678273</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02040511734755998</v>
+        <v>0.02168247082315709</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04005352424226046</v>
+        <v>0.0402592267739711</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02554512537015489</v>
+        <v>0.02634804472158819</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.02393168275672912</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.02270879692959297</v>
+        <v>0.02270879692959296</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01460916990036885</v>
+        <v>0.01525562204858178</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01802994238425104</v>
+        <v>0.01800778550526659</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01837119975296615</v>
+        <v>0.01779602793129704</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03059811407277426</v>
+        <v>0.03021109082032805</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0317171778097487</v>
+        <v>0.03200643812850464</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02841750501098507</v>
+        <v>0.02844298010347283</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4943</v>
+        <v>4037</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>4676</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11910</v>
+        <v>11361</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17220</v>
+        <v>15797</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14365</v>
+        <v>14621</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26672</v>
+        <v>26422</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1351</v>
+        <v>1759</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5829</v>
+        <v>5871</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9058</v>
+        <v>9486</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11458</v>
+        <v>12269</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20195</v>
+        <v>19487</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24106</v>
+        <v>26465</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8278</v>
+        <v>9016</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5041</v>
+        <v>4956</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>16629</v>
+        <v>16534</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25492</v>
+        <v>26250</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16911</v>
+        <v>17200</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>37568</v>
+        <v>37434</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>911</v>
+        <v>937</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7213</v>
+        <v>7454</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9998</v>
+        <v>10145</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8843</v>
+        <v>9396</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19589</v>
+        <v>19689</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>23563</v>
+        <v>24304</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>22911</v>
+        <v>23925</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>30554</v>
+        <v>30516</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>59943</v>
+        <v>58066</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>47986</v>
+        <v>47379</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>53748</v>
+        <v>54238</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>92723</v>
+        <v>92806</v>
       </c>
     </row>
     <row r="24">
